--- a/Consumption_Range.xlsx
+++ b/Consumption_Range.xlsx
@@ -14,48 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Consumption (Plant 5340310):</t>
+    <t>Consumption (Plant 9209949):</t>
   </si>
   <si>
     <t>Date</t>
   </si>
   <si>
     <t>Total Consumption (kWh)</t>
-  </si>
-  <si>
-    <t>2023-01-1</t>
-  </si>
-  <si>
-    <t>2023-01-2</t>
-  </si>
-  <si>
-    <t>2023-01-3</t>
-  </si>
-  <si>
-    <t>2023-01-4</t>
-  </si>
-  <si>
-    <t>2023-01-5</t>
-  </si>
-  <si>
-    <t>2023-01-6</t>
-  </si>
-  <si>
-    <t>2023-01-7</t>
-  </si>
-  <si>
-    <t>2023-01-8</t>
-  </si>
-  <si>
-    <t>2023-01-9</t>
-  </si>
-  <si>
-    <t>2023-01-10</t>
-  </si>
-  <si>
-    <t>2023-01-11</t>
   </si>
 </sst>
 </file>
@@ -401,7 +368,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -422,94 +389,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>1176.85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>947.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>993.183</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>853.75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>721.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>717.3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>647.217</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>608.633</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <v>623.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <v>673.167</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13">
-        <v>596.067</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Consumption_Range.xlsx
+++ b/Consumption_Range.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Consumption (Plant 9209949):</t>
+    <t>Consumption (Plant 5340310):</t>
   </si>
   <si>
     <t>Date</t>

--- a/Consumption_Range.xlsx
+++ b/Consumption_Range.xlsx
@@ -14,15 +14,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Consumption (Plant 5340310):</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>Consumption (Plant 9209949):</t>
   </si>
   <si>
     <t>Date</t>
   </si>
   <si>
     <t>Total Consumption (kWh)</t>
+  </si>
+  <si>
+    <t>2023-04-3</t>
+  </si>
+  <si>
+    <t>2023-04-4</t>
+  </si>
+  <si>
+    <t>2023-04-5</t>
+  </si>
+  <si>
+    <t>2023-04-6</t>
+  </si>
+  <si>
+    <t>2023-04-7</t>
+  </si>
+  <si>
+    <t>2023-04-8</t>
+  </si>
+  <si>
+    <t>2023-04-9</t>
+  </si>
+  <si>
+    <t>2023-04-10</t>
   </si>
 </sst>
 </file>
@@ -368,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -389,6 +413,70 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>587.2670000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>467.067</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>509.65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>524.467</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>512.633</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>510.683</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>499.733</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>397.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Consumption_Range.xlsx
+++ b/Consumption_Range.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Consumption (Plant 5340310):</t>
+    <t>Consumption (Plant 9209949):</t>
   </si>
   <si>
     <t>Date</t>
